--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P01_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P01_trail7 Features.xlsx
@@ -3957,7 +3957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3968,29 +3968,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4011,115 +4009,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4136,72 +4124,66 @@
         <v>2.670978873907924e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.2269858594077784</v>
+        <v>1.530701758061165e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.3647693060115569</v>
+        <v>3.734191776248097e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.530701758061165e-06</v>
+        <v>0.09558252202844025</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.734191776248097e-06</v>
+        <v>0.2398360141402962</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.09558252202844025</v>
+        <v>0.06655984104262397</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2398360141402962</v>
+        <v>1.54950020544837</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.06655984104262397</v>
+        <v>1.182922486736949</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.557322838422606</v>
+        <v>17.82329207271462</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.182922486736949</v>
+        <v>6.473266417501061e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>17.82329207271462</v>
+        <v>130466395.2270379</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>6.473266417501061e-14</v>
+        <v>8.16309561926155e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>130466395.2270379</v>
+        <v>1101.845766955808</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>8.16309561926155e-07</v>
+        <v>0.0001256175874050674</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1101.845766955808</v>
+        <v>12.0552916569911</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001256175874050674</v>
+        <v>1.110114879879845</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>12.0552916569911</v>
+        <v>0.01825601112963077</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.110114879879845</v>
+        <v>4.731278938578883</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01825601112963077</v>
+        <v>0.9372808772630212</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>4.731278938578883</v>
+        <v>0.8846915927902568</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9372808772630212</v>
+        <v>6</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.8846915927902568</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>3.007074740300068</v>
       </c>
     </row>
@@ -4216,72 +4198,66 @@
         <v>2.546143725712127e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.2145357318248686</v>
+        <v>1.248001336322562e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.5361091683357992</v>
+        <v>3.757173988189198e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.248001336322562e-06</v>
+        <v>0.081149655774598</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.757173988189198e-06</v>
+        <v>0.2144742138679211</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.081149655774598</v>
+        <v>0.05252827061667809</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2144742138679211</v>
+        <v>1.552848347255648</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.05252827061667809</v>
+        <v>1.185153213049703</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.557985341959263</v>
+        <v>17.40187236433771</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.185153213049703</v>
+        <v>6.790587841780576e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>17.40187236433771</v>
+        <v>124381514.9918005</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>6.790587841780576e-14</v>
+        <v>8.562590979426405e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>124381514.9918005</v>
+        <v>1050.555633943935</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>8.562590979426405e-07</v>
+        <v>9.09656823199626e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1050.555633943935</v>
+        <v>12.11365573995879</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>9.09656823199626e-05</v>
+        <v>1.048818028148233</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>12.11365573995879</v>
+        <v>0.0133483638412875</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.048818028148233</v>
+        <v>5.407088317297426</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0133483638412875</v>
+        <v>0.9374101272697444</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>5.407088317297426</v>
+        <v>0.9045989203402973</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9374101272697444</v>
+        <v>6</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.9045989203402973</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>4.234120912594993</v>
       </c>
     </row>
@@ -4296,72 +4272,66 @@
         <v>2.508398305175319e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.3843337604680827</v>
+        <v>1.04696296652529e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.8026536839020393</v>
+        <v>3.775836892619804e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.04696296652529e-06</v>
+        <v>0.06715324521951466</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.775836892619804e-06</v>
+        <v>0.1975702854874148</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.06715324521951466</v>
+        <v>0.04351393519298221</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1975702854874148</v>
+        <v>1.552200517607446</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04351393519298221</v>
+        <v>1.185244411718738</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.554671741687963</v>
+        <v>17.27481606730868</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.185244411718738</v>
+        <v>6.890844752426328e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>17.27481606730868</v>
+        <v>122579335.2448758</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>6.890844752426328e-14</v>
+        <v>8.688537865338713e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>122579335.2448758</v>
+        <v>1035.397207173127</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>8.688537865338713e-07</v>
+        <v>7.582500966161233e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1035.397207173127</v>
+        <v>10.88010831374846</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>7.582500966161233e-05</v>
+        <v>1.110275837673515</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.88010831374846</v>
+        <v>0.008975918737085798</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.110275837673515</v>
+        <v>5.811137852121818</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.008975918737085798</v>
+        <v>0.9377156217931801</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>5.811137852121818</v>
+        <v>0.9387857361060563</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9377156217931801</v>
+        <v>1</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.9387857361060563</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>4.702832304380749</v>
       </c>
     </row>
@@ -4376,72 +4346,66 @@
         <v>2.509400108879123e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.4076526176647411</v>
+        <v>9.037752314165036e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.9030332441417355</v>
+        <v>3.791130298525774e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>9.037752314165036e-07</v>
+        <v>0.05526317037514101</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.791130298525774e-06</v>
+        <v>0.1878794442734533</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.05526317037514101</v>
+        <v>0.03833627869739774</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1878794442734533</v>
+        <v>1.559531377358086</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.03833627869739774</v>
+        <v>1.190075750237829</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.560777484311011</v>
+        <v>17.28089655767938</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.190075750237829</v>
+        <v>6.885996353089512e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>17.28089655767938</v>
+        <v>122689693.4004051</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>6.885996353089512e-14</v>
+        <v>8.681196764681653e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>122689693.4004051</v>
+        <v>1036.532564319243</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>8.681196764681653e-07</v>
+        <v>7.943587860507299e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1036.532564319243</v>
+        <v>9.082496608488952</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>7.943587860507299e-05</v>
+        <v>1.361332121932153</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.082496608488952</v>
+        <v>0.006552804213398974</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.361332121932153</v>
+        <v>5.822752332025262</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.006552804213398974</v>
+        <v>0.9391904464040223</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>5.822752332025262</v>
+        <v>0.9231664509932026</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9391904464040223</v>
+        <v>8</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.9231664509932026</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>4.363850211879988</v>
       </c>
     </row>
@@ -4456,72 +4420,66 @@
         <v>2.525752292429096e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.3672169374722837</v>
+        <v>8.493062731848665e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.9764720574690351</v>
+        <v>3.803769250502548e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>8.493062731848665e-07</v>
+        <v>0.04556463234004868</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.803769250502548e-06</v>
+        <v>0.1816105873452799</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.04556463234004868</v>
+        <v>0.03504869185508482</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1816105873452799</v>
+        <v>1.558189085245445</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03504869185508482</v>
+        <v>1.191244585235051</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.558249484486096</v>
+        <v>17.25891391090518</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.191244585235051</v>
+        <v>6.903548885964955e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>17.25891391090518</v>
+        <v>122381140.0495657</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>6.903548885964955e-14</v>
+        <v>8.703054302028511e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>122381140.0495657</v>
+        <v>1033.954419089855</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>8.703054302028511e-07</v>
+        <v>0.0001080110186259338</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>1033.954419089855</v>
+        <v>9.15542272018331</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001080110186259338</v>
+        <v>1.613530887644878</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.15542272018331</v>
+        <v>0.009053674240682553</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.613530887644878</v>
+        <v>5.315640403974992</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.009053674240682553</v>
+        <v>0.9381368108981655</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>5.315640403974992</v>
+        <v>0.9627968908340557</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9381368108981655</v>
+        <v>8</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.9627968908340557</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>3.38544829212241</v>
       </c>
     </row>
@@ -4536,72 +4494,66 @@
         <v>2.548182330258662e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.3047124603970249</v>
+        <v>8.493062731848665e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.046122643535267</v>
+        <v>3.814360077599979e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>8.493062731848665e-07</v>
+        <v>0.03852872186017339</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.814360077599979e-06</v>
+        <v>0.1775372992940609</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.03852872186017339</v>
+        <v>0.03300039318295332</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1775372992940609</v>
+        <v>1.558077706404097</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03300039318295332</v>
+        <v>1.191682879317675</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.557889083523699</v>
+        <v>17.12732851942155</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.191682879317675</v>
+        <v>7.010033177590498e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>17.12732851942155</v>
+        <v>120529819.6246958</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>7.010033177590498e-14</v>
+        <v>8.836770160311679e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>120529819.6246958</v>
+        <v>1018.378182908893</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>8.836770160311679e-07</v>
+        <v>0.0001151527109084452</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1018.378182908893</v>
+        <v>10.98939200880121</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001151527109084452</v>
+        <v>1.255772969665325</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.98939200880121</v>
+        <v>0.01390661712123191</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.255772969665325</v>
+        <v>4.962646864512797</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01390661712123191</v>
+        <v>0.9389419939321411</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>4.962646864512797</v>
+        <v>0.9406274057010297</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9389419939321411</v>
+        <v>8</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.9406274057010297</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>2.974689440587921</v>
       </c>
     </row>
@@ -4616,72 +4568,66 @@
         <v>2.572543660375091e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.2387808862648081</v>
+        <v>8.493062731848665e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.110786821240901</v>
+        <v>3.823695586460825e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>8.493062731848665e-07</v>
+        <v>0.03494774405385655</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.823695586460825e-06</v>
+        <v>0.175081856093955</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.03494774405385655</v>
+        <v>0.03187400452726905</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.175081856093955</v>
+        <v>1.563004107620835</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.03187400452726905</v>
+        <v>1.193425444260509</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.562909808176768</v>
+        <v>16.81990938295002</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.193425444260509</v>
+        <v>7.26862102578961e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>16.81990938295002</v>
+        <v>116254426.9375493</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>7.26862102578961e-14</v>
+        <v>9.162081024322235e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>116254426.9375493</v>
+        <v>982.3608029632273</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>9.162081024322235e-07</v>
+        <v>9.792717307225667e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>982.3608029632273</v>
+        <v>12.27128402050419</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>9.792717307225667e-05</v>
+        <v>1.047903280092648</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>12.27128402050419</v>
+        <v>0.01474630572810794</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.047903280092648</v>
+        <v>5.215382280298514</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01474630572810794</v>
+        <v>0.9384031188991547</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>5.215382280298514</v>
+        <v>0.8906349019585108</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9384031188991547</v>
+        <v>8</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.8906349019585108</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>3.706610499387319</v>
       </c>
     </row>
@@ -4696,72 +4642,66 @@
         <v>2.598445761810588e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.1748349921574474</v>
+        <v>8.493062731848665e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.168310139852645</v>
+        <v>3.8324807224531e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>8.493062731848665e-07</v>
+        <v>0.03296861081978977</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.8324807224531e-06</v>
+        <v>0.1731328214729098</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.03296861081978977</v>
+        <v>0.03106152445044288</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1731328214729098</v>
+        <v>1.558222927256949</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.03106152445044288</v>
+        <v>1.219278307134571</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.556028491028625</v>
+        <v>19.06836404122703</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.219278307134571</v>
+        <v>7.330890546070595e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>19.06836404122703</v>
+        <v>119641649.722853</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>7.330890546070595e-14</v>
+        <v>8.900731657532052e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>119641649.722853</v>
+        <v>1049.352788610074</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>8.900731657532052e-07</v>
+        <v>8.404943717163614e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>1049.352788610074</v>
+        <v>11.45733745189847</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>8.404943717163614e-05</v>
+        <v>1.070066054498401</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>11.45733745189847</v>
+        <v>0.01103321849114847</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.070066054498401</v>
+        <v>5.574362948078186</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01103321849114847</v>
+        <v>0.9376326677932547</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>5.574362948078186</v>
+        <v>0.9576022920817587</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9376326677932547</v>
+        <v>9</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.9576022920817587</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>4.293046012122089</v>
       </c>
     </row>
@@ -4776,72 +4716,66 @@
         <v>2.622835268572861e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.1125657114879856</v>
+        <v>8.493062731848665e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.21677451139868</v>
+        <v>3.840800569548068e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>8.493062731848665e-07</v>
+        <v>0.03075007116304373</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.840800569548068e-06</v>
+        <v>0.1717142572175405</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.03075007116304373</v>
+        <v>0.03043102740669286</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1717142572175405</v>
+        <v>1.558527825647902</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.03043102740669286</v>
+        <v>1.216303263375121</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.556125991420353</v>
+        <v>19.59753295869517</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.216303263375121</v>
+        <v>6.940340813712082e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>19.59753295869517</v>
+        <v>126373460.9712319</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>6.940340813712082e-14</v>
+        <v>8.426583597500704e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>126373460.9712319</v>
+        <v>1108.38989247405</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>8.426583597500704e-07</v>
+        <v>8.318278471892114e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>1108.38989247405</v>
+        <v>9.655921140199156</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>8.318278471892114e-05</v>
+        <v>1.270544670456582</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.655921140199156</v>
+        <v>0.007755697749126158</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.270544670456582</v>
+        <v>5.667515787895136</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.007755697749126158</v>
+        <v>0.9360870895124159</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>5.667515787895136</v>
+        <v>0.9734176022877931</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9360870895124159</v>
+        <v>9</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.9734176022877931</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>4.118352764782075</v>
       </c>
     </row>
@@ -4856,72 +4790,66 @@
         <v>2.64310558692641e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.05120173976153187</v>
+        <v>8.493062731848665e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.25433238857142</v>
+        <v>3.848607301190892e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>8.493062731848665e-07</v>
+        <v>0.02856399276709284</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.848607301190892e-06</v>
+        <v>0.1709224476492999</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.02856399276709284</v>
+        <v>0.03002993105504144</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1709224476492999</v>
+        <v>1.558818204260365</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.03002993105504144</v>
+        <v>1.215171187654338</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.557895524009269</v>
+        <v>20.74005029004551</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.215171187654338</v>
+        <v>6.196750268965555e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>20.74005029004551</v>
+        <v>141537137.0662887</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>6.196750268965555e-14</v>
+        <v>7.52377449239703e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>141537137.0662887</v>
+        <v>1241.380181616364</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>7.52377449239703e-07</v>
+        <v>8.890549105850605e-05</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>1241.380181616364</v>
+        <v>8.620360380999571</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>8.890549105850605e-05</v>
+        <v>1.548403076257187</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.620360380999571</v>
+        <v>0.006606621548363644</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.548403076257187</v>
+        <v>5.500486669239925</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.006606621548363644</v>
+        <v>0.9356393517268743</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>5.500486669239925</v>
+        <v>0.9898475911609866</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9356393517268743</v>
+        <v>9</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.9898475911609866</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>3.423073813150427</v>
       </c>
     </row>
@@ -4936,72 +4864,66 @@
         <v>2.657231435999812e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.01002038270245239</v>
+        <v>8.493062731848665e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.277978496393978</v>
+        <v>3.855956661552072e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>8.493062731848665e-07</v>
+        <v>0.02702134553227869</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.855956661552072e-06</v>
+        <v>0.1706988314116566</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.02702134553227869</v>
+        <v>0.0298674964902487</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1706988314116566</v>
+        <v>1.557077653284673</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.0298674964902487</v>
+        <v>1.217490640564711</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.556200124794072</v>
+        <v>21.86561965624627</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.217490640564711</v>
+        <v>5.575194532803752e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>21.86561965624627</v>
+        <v>157313475.8534211</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>5.575194532803752e-14</v>
+        <v>6.769177952115534e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>157313475.8534211</v>
+        <v>1379.722922006838</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>6.769177952115534e-07</v>
+        <v>9.189609329734834e-05</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>1379.722922006838</v>
+        <v>8.808927310218461</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>9.189609329734834e-05</v>
+        <v>1.544032016479163</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.808927310218461</v>
+        <v>0.007130879563593498</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.544032016479163</v>
+        <v>5.061094958928329</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.007130879563593498</v>
+        <v>0.9352491057117339</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>5.061094958928329</v>
+        <v>0.9580408659710542</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9352491057117339</v>
+        <v>9</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.9580408659710542</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>2.264515898735881</v>
       </c>
     </row>
@@ -5016,72 +4938,66 @@
         <v>2.663717476823855e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.0718794966899827</v>
+        <v>8.493062731848665e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.284044224095388</v>
+        <v>3.863038147098422e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>8.493062731848665e-07</v>
+        <v>0.02626996990604854</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.863038147098422e-06</v>
+        <v>0.1707225201288211</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.02626996990604854</v>
+        <v>0.02983527302419377</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1707225201288211</v>
+        <v>1.558416371562844</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.02983527302419377</v>
+        <v>1.218250918685558</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.55873182051554</v>
+        <v>22.93335430259932</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.218250918685558</v>
+        <v>5.068138134891735e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>22.93335430259932</v>
+        <v>173052442.6205804</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>5.068138134891735e-14</v>
+        <v>6.153526140798446e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>173052442.6205804</v>
+        <v>1517.762822877714</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>6.153526140798446e-07</v>
+        <v>8.500601066639952e-05</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>1517.762822877714</v>
+        <v>10.58053207250855</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>8.500601066639952e-05</v>
+        <v>1.182936391672107</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>10.58053207250855</v>
+        <v>0.00951622388970955</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.182936391672107</v>
+        <v>4.636869212265968</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.00951622388970955</v>
+        <v>0.9353849213443201</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>4.636869212265968</v>
+        <v>1.014756190463066</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9353849213443201</v>
+        <v>31</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.014756190463066</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>1.429372445237608</v>
       </c>
     </row>
@@ -5096,72 +5012,66 @@
         <v>2.661985831369255e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.1342935205779751</v>
+        <v>8.493062731848665e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.270385114229313</v>
+        <v>3.869994083822248e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>8.493062731848665e-07</v>
+        <v>0.02600998591339288</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.869994083822248e-06</v>
+        <v>0.1710280895234781</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.02600998591339288</v>
+        <v>0.02992605490978241</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1710280895234781</v>
+        <v>1.582277670332084</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.02992605490978241</v>
+        <v>1.234966321229975</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.587982543637944</v>
+        <v>23.12348625903887</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.234966321229975</v>
+        <v>4.985135652909376e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>23.12348625903887</v>
+        <v>175924265.2170038</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>4.985135652909376e-14</v>
+        <v>6.05348898437176e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>175924265.2170038</v>
+        <v>1542.866936233077</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>6.05348898437176e-07</v>
+        <v>9.750478694040666e-05</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>1542.866936233077</v>
+        <v>11.72061796057074</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>9.750478694040666e-05</v>
+        <v>1.079541505035551</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>11.72061796057074</v>
+        <v>0.01339451392013699</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.079541505035551</v>
+        <v>4.345586283428917</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01339451392013699</v>
+        <v>0.9413828838533275</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>4.345586283428917</v>
+        <v>0.9124451856057897</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9413828838533275</v>
+        <v>37</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.9124451856057897</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>1.173232599042285</v>
       </c>
     </row>
@@ -5176,72 +5086,66 @@
         <v>2.651961965483315e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.1968171150078543</v>
+        <v>8.493062731848665e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.236343780286405</v>
+        <v>3.876938563397774e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>8.493062731848665e-07</v>
+        <v>0.0263228350517504</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.876938563397774e-06</v>
+        <v>0.1715321118288929</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.0263228350517504</v>
+        <v>0.03011528458500827</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1715321118288929</v>
+        <v>1.618446808872289</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.03011528458500827</v>
+        <v>1.308177892196521</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.558577672927972</v>
+        <v>8.073090743913093</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.308177892196521</v>
+        <v>3.354050769105463e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>8.073090743913093</v>
+        <v>71033964.3501851</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>3.354050769105463e-14</v>
+        <v>1.497184577874012e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>71033964.3501851</v>
+        <v>169.2395017420693</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.497184577874012e-06</v>
+        <v>0.0001361783155085589</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>169.2395017420693</v>
+        <v>10.44107504103149</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001361783155085589</v>
+        <v>1.307046888448935</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>10.44107504103149</v>
+        <v>0.01484562178173573</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.307046888448935</v>
+        <v>3.970077000255248</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01484562178173573</v>
+        <v>0.9459307749872224</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.970077000255248</v>
+        <v>1.324470795137933</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9459307749872224</v>
+        <v>37</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.324470795137933</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.8814360628492888</v>
       </c>
     </row>
@@ -5256,72 +5160,66 @@
         <v>2.633821479654854e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.2591410974594726</v>
+        <v>8.493062731848665e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.182323516980675</v>
+        <v>3.88399614734223e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>8.493062731848665e-07</v>
+        <v>0.02710446192079941</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.88399614734223e-06</v>
+        <v>0.1723387228656825</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.02710446192079941</v>
+        <v>0.03043455477423705</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1723387228656825</v>
+        <v>1.636115464948713</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.03043455477423705</v>
+        <v>1.299837638619781</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.581057463875402</v>
+        <v>10.03036155162834</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.299837638619781</v>
+        <v>1.976452201089645e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>10.03036155162834</v>
+        <v>120510322.0599416</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.976452201089645e-14</v>
+        <v>8.827513231510628e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>120510322.0599416</v>
+        <v>287.0349693845286</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>8.827513231510628e-07</v>
+        <v>0.0001272170412076971</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>287.0349693845286</v>
+        <v>9.19819828296465</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001272170412076971</v>
+        <v>1.457394917085862</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.19819828296465</v>
+        <v>0.01076343333315936</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.457394917085862</v>
+        <v>4.107516909185327</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01076343333315936</v>
+        <v>0.9456026527877101</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>4.107516909185327</v>
+        <v>1.285400257920889</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9456026527877101</v>
+        <v>37</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.285400257920889</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.9464417455113594</v>
       </c>
     </row>
@@ -5336,72 +5234,66 @@
         <v>2.607488796708418e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.3208856472056942</v>
+        <v>8.493062731848665e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.108789739181422</v>
+        <v>3.891257606739974e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>8.493062731848665e-07</v>
+        <v>0.02837757710476878</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.891257606739974e-06</v>
+        <v>0.1735220697584788</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.02837757710476878</v>
+        <v>0.03091462514853964</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1735220697584788</v>
+        <v>1.687979069624873</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.03091462514853964</v>
+        <v>1.353635633339974</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.636799819546338</v>
+        <v>9.729186029973672</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.353635633339974</v>
+        <v>1.51119888384161e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>9.729186029973672</v>
+        <v>157409259.5964837</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.51119888384161e-14</v>
+        <v>6.763634388721966e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>157409259.5964837</v>
+        <v>374.4399481433514</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>6.763634388721966e-07</v>
+        <v>8.140006961822988e-05</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>374.4399481433514</v>
+        <v>7.955498919171049</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>8.140006961822988e-05</v>
+        <v>1.453602123340529</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>7.955498919171049</v>
+        <v>0.00515180739864384</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.453602123340529</v>
+        <v>4.761975545345298</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.00515180739864384</v>
+        <v>0.9528231199184916</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>4.761975545345298</v>
+        <v>1.204715571629177</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9528231199184916</v>
+        <v>37</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.204715571629177</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>1.387771519858279</v>
       </c>
     </row>
@@ -5778,7 +5670,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.311055271506383</v>
+        <v>1.319633366516804</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.662185152815563</v>
@@ -5867,7 +5759,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.227454822606185</v>
+        <v>1.2328223970584</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.52846912809008</v>
@@ -5956,7 +5848,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.211589456118657</v>
+        <v>1.217988072699955</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.521747969465408</v>
@@ -6045,7 +5937,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.21550084329765</v>
+        <v>1.222323857244787</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.529961007342405</v>
@@ -6134,7 +6026,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.220658272214142</v>
+        <v>1.23397379875495</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.570690389244668</v>
@@ -6223,7 +6115,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.232844288975907</v>
+        <v>1.247841698527385</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.577059982561916</v>
@@ -6312,7 +6204,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.240029010877882</v>
+        <v>1.256299370398439</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.574600319860109</v>
@@ -6401,7 +6293,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.260246564535589</v>
+        <v>1.278034790265657</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.576315353638535</v>
@@ -6490,7 +6382,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.259783131082644</v>
+        <v>1.276284132933819</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.58903299854089</v>
@@ -6579,7 +6471,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.281764992496231</v>
+        <v>1.308462710565247</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.556246781010931</v>
@@ -6668,7 +6560,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.282615538314581</v>
+        <v>1.309907314081361</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.553204580886679</v>
@@ -6757,7 +6649,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.283472741158528</v>
+        <v>1.310152666819047</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.55476214728985</v>
@@ -6846,7 +6738,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.286349390854557</v>
+        <v>1.312837826645201</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.561254520832605</v>
@@ -6935,7 +6827,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.289302911525613</v>
+        <v>1.316413474703546</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.553459380985277</v>
@@ -7024,7 +6916,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.30251029509852</v>
+        <v>1.328995403854035</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.55181804793662</v>
@@ -7113,7 +7005,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.315110521057205</v>
+        <v>1.342523754743088</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.522274021333955</v>
@@ -7202,7 +7094,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.475655288546356</v>
+        <v>1.498993306879502</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.693707924912637</v>
@@ -7291,7 +7183,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.548818370948987</v>
+        <v>1.572047632813263</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.906535552644459</v>
@@ -7380,7 +7272,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.609085830273011</v>
+        <v>1.62200389920481</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.705295336554084</v>
@@ -7469,7 +7361,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.71698771660715</v>
+        <v>1.705005749965466</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.213821933480355</v>
@@ -7558,7 +7450,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.720116625868408</v>
+        <v>1.701246805341373</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.423170983003057</v>
@@ -7647,7 +7539,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.704777191766896</v>
+        <v>1.685403969574479</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.291565275311268</v>
@@ -7736,7 +7628,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.64783726385656</v>
+        <v>1.647422669301787</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.165665304328528</v>
@@ -7825,7 +7717,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.720412768191719</v>
+        <v>1.724027760820338</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.231696286192319</v>
@@ -7914,7 +7806,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.738429373192277</v>
+        <v>1.746837002790735</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.338354925537718</v>
@@ -8003,7 +7895,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.740872358548214</v>
+        <v>1.744565000180871</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.405845255153581</v>
@@ -8092,7 +7984,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.712341462529013</v>
+        <v>1.728397237732613</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.397719429835622</v>
@@ -8181,7 +8073,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.688065914173044</v>
+        <v>1.705732600248286</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.399109081305831</v>
@@ -8270,7 +8162,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.697845593891731</v>
+        <v>1.717694039729381</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.437131826314605</v>
@@ -8359,7 +8251,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.67973489598304</v>
+        <v>1.705106174150182</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.433831451147129</v>
@@ -8448,7 +8340,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.676668800736413</v>
+        <v>1.701020089696909</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.46752306562483</v>
@@ -8537,7 +8429,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.683180977487513</v>
+        <v>1.708501580422945</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.41561774659835</v>
@@ -8626,7 +8518,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.681386618428476</v>
+        <v>1.710118353499862</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.414166658920999</v>
@@ -8715,7 +8607,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.683372838816796</v>
+        <v>1.710556935732616</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.485594397551032</v>
@@ -8804,7 +8696,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.685227613639394</v>
+        <v>1.711448741067959</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.399385719924061</v>
@@ -8893,7 +8785,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.682411868948449</v>
+        <v>1.709770242528597</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.473118465332757</v>
@@ -8982,7 +8874,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.692257309640761</v>
+        <v>1.716496163319983</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.287324679182892</v>
@@ -9071,7 +8963,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.742729910986473</v>
+        <v>1.766468438889144</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.150753323178691</v>
@@ -9160,7 +9052,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.707771856520796</v>
+        <v>1.724934642618664</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.253026421399629</v>
@@ -9249,7 +9141,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.686237394134077</v>
+        <v>1.699439284405474</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.981134780646392</v>
@@ -9338,7 +9230,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.687148117840556</v>
+        <v>1.694431648828486</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.529953769942975</v>
@@ -9427,7 +9319,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.665041079066055</v>
+        <v>1.679778432195552</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.132175001451604</v>
@@ -9516,7 +9408,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.698512826633252</v>
+        <v>1.717768869374063</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.135823179478989</v>
@@ -9605,7 +9497,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.70163096020114</v>
+        <v>1.718587171644617</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.142781754852965</v>
@@ -9694,7 +9586,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.727263253154068</v>
+        <v>1.740830620726115</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.122994856809431</v>
@@ -9783,7 +9675,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.724635392822643</v>
+        <v>1.7383915451456</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.152252122117169</v>
@@ -9872,7 +9764,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.721051964402328</v>
+        <v>1.732992113329944</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.149376168331426</v>
@@ -9961,7 +9853,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.706882503635855</v>
+        <v>1.719829361594769</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.142561447678663</v>
@@ -10050,7 +9942,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.705392886655835</v>
+        <v>1.723486207136217</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.16201043262123</v>
@@ -10139,7 +10031,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.707366325982897</v>
+        <v>1.72300575669799</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.1513318630492</v>
@@ -10228,7 +10120,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.712596420324297</v>
+        <v>1.723583718172783</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.154106073449533</v>
@@ -10317,7 +10209,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.723418177354202</v>
+        <v>1.736610135804097</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.179714192909585</v>
@@ -10406,7 +10298,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.706123916692138</v>
+        <v>1.717460590738098</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.15523130711507</v>
@@ -10495,7 +10387,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.71445857215522</v>
+        <v>1.724527050605318</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.152405433877885</v>
@@ -10584,7 +10476,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.710498090327949</v>
+        <v>1.719506910968355</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.134061998559796</v>
@@ -10673,7 +10565,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.698560287785924</v>
+        <v>1.711875639509439</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.125068736345777</v>
@@ -10762,7 +10654,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.729716628692818</v>
+        <v>1.734837217495331</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.004332685445147</v>
@@ -10851,7 +10743,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.714768053413636</v>
+        <v>1.716213415129953</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.789003686684306</v>
@@ -10940,7 +10832,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.706905380065246</v>
+        <v>1.706094128612084</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.041516755002204</v>
@@ -11029,7 +10921,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.69781730838884</v>
+        <v>1.691887682054127</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.796181755008733</v>
@@ -11118,7 +11010,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.664325788266819</v>
+        <v>1.663362516909628</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.644944064960716</v>
@@ -11404,7 +11296,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.469555422987704</v>
+        <v>1.457802061531412</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.117686448514826</v>
@@ -11493,7 +11385,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.43088467515756</v>
+        <v>1.415379107021906</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.02316272278688</v>
@@ -11582,7 +11474,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.47021426321582</v>
+        <v>1.451774030759405</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.986834501056742</v>
@@ -11671,7 +11563,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.468457287551202</v>
+        <v>1.455329648966566</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.015066593584551</v>
@@ -11760,7 +11652,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.435167663832342</v>
+        <v>1.44046711953531</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.036423981843939</v>
@@ -11849,7 +11741,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.441074343325877</v>
+        <v>1.449921192571288</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.087713800718123</v>
@@ -11938,7 +11830,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.421387181790158</v>
+        <v>1.423157669083873</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.972177425801266</v>
@@ -12027,7 +11919,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.424969261902449</v>
+        <v>1.426669220763885</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.987280874805198</v>
@@ -12116,7 +12008,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.410550039037983</v>
+        <v>1.408275441252828</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.042388052949317</v>
@@ -12205,7 +12097,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.426760978812816</v>
+        <v>1.423866219379211</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.025421167901774</v>
@@ -12294,7 +12186,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.440011575838215</v>
+        <v>1.438926028841433</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.03380584505065</v>
@@ -12383,7 +12275,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.445453409187667</v>
+        <v>1.436709866419628</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.968001895022604</v>
@@ -12472,7 +12364,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.439939213081399</v>
+        <v>1.43590365680611</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.017807930163559</v>
@@ -12561,7 +12453,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.436406788581592</v>
+        <v>1.433107368711189</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.003391006366673</v>
@@ -12650,7 +12542,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.428184333345743</v>
+        <v>1.42702660322745</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.003336055580601</v>
@@ -12739,7 +12631,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.421785862874774</v>
+        <v>1.423366048611997</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.000893440089111</v>
@@ -12828,7 +12720,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.466517429507827</v>
+        <v>1.465941355554771</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.028312959442463</v>
@@ -12917,7 +12809,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.470100401624791</v>
+        <v>1.468910087008938</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.933395361417784</v>
@@ -13006,7 +12898,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.510859123118969</v>
+        <v>1.500372232827634</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.008926732081774</v>
@@ -13095,7 +12987,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.550409531542126</v>
+        <v>1.512133982733577</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.535603854214227</v>
@@ -13184,7 +13076,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.535891333018666</v>
+        <v>1.498878246057411</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.688445761279961</v>
@@ -13273,7 +13165,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.532475213426069</v>
+        <v>1.496150401486562</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.648034898312646</v>
@@ -13362,7 +13254,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.48632625059163</v>
+        <v>1.456367908673164</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.232539408364993</v>
@@ -13451,7 +13343,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.503272739264391</v>
+        <v>1.478816606751715</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.282951970182275</v>
@@ -13540,7 +13432,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.498531513904601</v>
+        <v>1.477018103173073</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.248024163490542</v>
@@ -13629,7 +13521,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.495808878783295</v>
+        <v>1.467495459521699</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.225139612210605</v>
@@ -13718,7 +13610,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.494794865323828</v>
+        <v>1.467312212821479</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.573536954794236</v>
@@ -13807,7 +13699,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.484550483360213</v>
+        <v>1.455595672078949</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.580714476645714</v>
@@ -13896,7 +13788,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.467031744548791</v>
+        <v>1.437535413803369</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.583911972235843</v>
@@ -13985,7 +13877,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.474217372981649</v>
+        <v>1.440382671396738</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.571527798976094</v>
@@ -14074,7 +13966,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.4776299348467</v>
+        <v>1.444000520689132</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.570326392011385</v>
@@ -14163,7 +14055,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.486188915151529</v>
+        <v>1.444546825227668</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.57971093928328</v>
@@ -14252,7 +14144,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.480054665928864</v>
+        <v>1.435090399506945</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.578763543375538</v>
@@ -14341,7 +14233,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.469812221721032</v>
+        <v>1.42109157107007</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.590636799026875</v>
@@ -14430,7 +14322,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.471538374859889</v>
+        <v>1.417965071128674</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.594645779928587</v>
@@ -14519,7 +14411,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.465692881167181</v>
+        <v>1.407638623030659</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.589071918326268</v>
@@ -14608,7 +14500,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.462800153905336</v>
+        <v>1.405424035589908</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.593105511721494</v>
@@ -14697,7 +14589,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.480653169559823</v>
+        <v>1.416326399395088</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.583830999010152</v>
@@ -14786,7 +14678,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.479508544765908</v>
+        <v>1.406934810189617</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.584368709117099</v>
@@ -14875,7 +14767,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.474723418894304</v>
+        <v>1.401506069315748</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.58444244436911</v>
@@ -14964,7 +14856,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.476644606582271</v>
+        <v>1.403751011748506</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.586872899943251</v>
@@ -15053,7 +14945,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.459249756259428</v>
+        <v>1.388044364082067</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.316194198263819</v>
@@ -15142,7 +15034,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.444577646146591</v>
+        <v>1.37917664790625</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.305543619820983</v>
@@ -15231,7 +15123,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.455457448470316</v>
+        <v>1.38984621640923</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.298270753375072</v>
@@ -15320,7 +15212,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.463716729813459</v>
+        <v>1.403351960182555</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.272682483243687</v>
@@ -15409,7 +15301,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.448441424213527</v>
+        <v>1.390182107586354</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.324941587235149</v>
@@ -15498,7 +15390,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.45536555591374</v>
+        <v>1.395155518149638</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.21873872953012</v>
@@ -15587,7 +15479,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.454442233564136</v>
+        <v>1.399640910649909</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.2307668315298</v>
@@ -15676,7 +15568,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.456455647654453</v>
+        <v>1.405965254306792</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.24307491446528</v>
@@ -15765,7 +15657,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.444103990813917</v>
+        <v>1.406826876715064</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.308716989735337</v>
@@ -15854,7 +15746,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.449390744799302</v>
+        <v>1.413201748957587</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.306321013692474</v>
@@ -15943,7 +15835,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.461094618718449</v>
+        <v>1.425302277863749</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.227075915237092</v>
@@ -16032,7 +15924,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.505473596973165</v>
+        <v>1.478884288583501</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.29134763879059</v>
@@ -16121,7 +16013,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.505502728178993</v>
+        <v>1.485759027758906</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.328197964355641</v>
@@ -16210,7 +16102,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.507163124105917</v>
+        <v>1.48492177781698</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.330184330334372</v>
@@ -16299,7 +16191,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.502878592956507</v>
+        <v>1.484545016571339</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.308028041517554</v>
@@ -16388,7 +16280,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.523574408248612</v>
+        <v>1.501640496038131</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.23291224432383</v>
@@ -16477,7 +16369,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.544693460544035</v>
+        <v>1.521581024809892</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.295105392466185</v>
@@ -16566,7 +16458,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.545140335795118</v>
+        <v>1.516742880769782</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.279900125966729</v>
@@ -16655,7 +16547,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.53040607064042</v>
+        <v>1.495331193706307</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.264491439611503</v>
@@ -16744,7 +16636,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.537446187438899</v>
+        <v>1.496381979493301</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.294599596893463</v>
@@ -17030,7 +16922,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.532803478888158</v>
+        <v>1.517266015912116</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.067633415632498</v>
@@ -17119,7 +17011,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.482637286127433</v>
+        <v>1.472383312140261</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.042641782758011</v>
@@ -17208,7 +17100,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.535571948162496</v>
+        <v>1.520596339329827</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.938328906077453</v>
@@ -17297,7 +17189,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.570737190479343</v>
+        <v>1.560012336052217</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.004722131869272</v>
@@ -17386,7 +17278,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.565851935659838</v>
+        <v>1.570615549806571</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.10097314830053</v>
@@ -17475,7 +17367,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.56788868940353</v>
+        <v>1.571318552231008</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.131158709826254</v>
@@ -17564,7 +17456,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.56041061474958</v>
+        <v>1.560716491137106</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.04578264101868</v>
@@ -17653,7 +17545,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.570794353757733</v>
+        <v>1.567166185968595</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.080523582415352</v>
@@ -17742,7 +17634,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.572368217128507</v>
+        <v>1.567822158531838</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.10701350086476</v>
@@ -17831,7 +17723,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.593433855246276</v>
+        <v>1.583613716007703</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.042655253097581</v>
@@ -17920,7 +17812,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.594739307229817</v>
+        <v>1.588258766568487</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.086895275963376</v>
@@ -18009,7 +17901,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.597306081411191</v>
+        <v>1.591975268648947</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.099685135129328</v>
@@ -18098,7 +17990,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.59146293779796</v>
+        <v>1.590557905737949</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.091015611688272</v>
@@ -18187,7 +18079,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.580431942272409</v>
+        <v>1.581216983508407</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.107901881396329</v>
@@ -18276,7 +18168,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.583929321317924</v>
+        <v>1.586540411651129</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.112795290502338</v>
@@ -18365,7 +18257,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.589811625084195</v>
+        <v>1.592020305927548</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.045516565731789</v>
@@ -18454,7 +18346,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.674969325956898</v>
+        <v>1.660157424649486</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.273612118407531</v>
@@ -18543,7 +18435,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.69820901617614</v>
+        <v>1.678875156511612</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.215409954331449</v>
@@ -18632,7 +18524,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.733239968735041</v>
+        <v>1.69862170701321</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.135958013829454</v>
@@ -18721,7 +18613,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.739555658504527</v>
+        <v>1.680650945968127</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.801059722574648</v>
@@ -18810,7 +18702,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.724951551551488</v>
+        <v>1.671129947656805</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.459941401923424</v>
@@ -18899,7 +18791,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.713486942921201</v>
+        <v>1.66275966817806</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.410439921424868</v>
@@ -18988,7 +18880,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.66785928902752</v>
+        <v>1.635938436467404</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.292499295746957</v>
@@ -19077,7 +18969,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.679465489286782</v>
+        <v>1.651752772382631</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.314090774711379</v>
@@ -19166,7 +19058,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.69499041049173</v>
+        <v>1.669929674093462</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.351992673030858</v>
@@ -19255,7 +19147,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.698886638835482</v>
+        <v>1.672846494091181</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.324295165529622</v>
@@ -19344,7 +19236,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.695182325891002</v>
+        <v>1.672523671589906</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.349294858418496</v>
@@ -19433,7 +19325,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.690831948271357</v>
+        <v>1.665838141884751</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.395718398827451</v>
@@ -19522,7 +19414,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.698780851241922</v>
+        <v>1.675040306341462</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.384195949405212</v>
@@ -19611,7 +19503,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.696926156520141</v>
+        <v>1.671633942905277</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.450769082984642</v>
@@ -19700,7 +19592,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.700728910612522</v>
+        <v>1.676380921708129</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.374090880160154</v>
@@ -19789,7 +19681,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.704595727712566</v>
+        <v>1.679960323006111</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.376223936572993</v>
@@ -19878,7 +19770,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.701042166196832</v>
+        <v>1.662513014895872</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.402311664568552</v>
@@ -19967,7 +19859,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.690926833809373</v>
+        <v>1.652104281601744</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.359615720586071</v>
@@ -20056,7 +19948,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.696210958901149</v>
+        <v>1.652618366459381</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.49828372762972</v>
@@ -20145,7 +20037,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.701927837317961</v>
+        <v>1.646852942614878</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.431377156005311</v>
@@ -20234,7 +20126,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.711581923960112</v>
+        <v>1.649151726925478</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.252082194585611</v>
@@ -20323,7 +20215,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.759963252459569</v>
+        <v>1.676811045405005</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.224883445025299</v>
@@ -20412,7 +20304,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.745285671400817</v>
+        <v>1.645406297813807</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.974794546071275</v>
@@ -20501,7 +20393,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.708858026615933</v>
+        <v>1.6194105658969</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.888356347970945</v>
@@ -20590,7 +20482,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.705780634570563</v>
+        <v>1.614516901122198</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.827023097759259</v>
@@ -20679,7 +20571,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.676578737300827</v>
+        <v>1.609066186708688</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.474437471659321</v>
@@ -20768,7 +20660,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.689479244154218</v>
+        <v>1.624076263602692</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.452922885665064</v>
@@ -20857,7 +20749,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.692452001017341</v>
+        <v>1.620696646192209</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.457380398474451</v>
@@ -20946,7 +20838,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.686913544023355</v>
+        <v>1.617769509331692</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.415901200240499</v>
@@ -21035,7 +20927,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.682569143355107</v>
+        <v>1.610981283407028</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.422333358610619</v>
@@ -21124,7 +21016,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.678311972988576</v>
+        <v>1.611195525998264</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.42204431117008</v>
@@ -21213,7 +21105,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.677442760535941</v>
+        <v>1.621005826292206</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.363325547331032</v>
@@ -21302,7 +21194,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.683870325505524</v>
+        <v>1.633121903796787</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.474537471350393</v>
@@ -21391,7 +21283,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.679782234507377</v>
+        <v>1.631998765853918</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.435102928186228</v>
@@ -21480,7 +21372,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.679958702429954</v>
+        <v>1.638907322127859</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.498411489878589</v>
@@ -21569,7 +21461,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.677048406626401</v>
+        <v>1.640983122961762</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.486179910719547</v>
@@ -21658,7 +21550,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.688627045840914</v>
+        <v>1.665146530814623</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.325777118435011</v>
@@ -21747,7 +21639,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.689440464560538</v>
+        <v>1.669957320244274</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.409084436511988</v>
@@ -21836,7 +21728,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.705424054693237</v>
+        <v>1.679677004620073</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.326662859959928</v>
@@ -21925,7 +21817,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.717117354957379</v>
+        <v>1.691684057082923</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.216374440809341</v>
@@ -22014,7 +21906,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.75494721664611</v>
+        <v>1.707488761355891</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.299925977533159</v>
@@ -22103,7 +21995,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.753290244382305</v>
+        <v>1.703796335649058</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.286692516447352</v>
@@ -22192,7 +22084,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.745157402305916</v>
+        <v>1.690403602617071</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.249944143183213</v>
@@ -22281,7 +22173,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.745466599651002</v>
+        <v>1.686771768787193</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.285127775296258</v>
@@ -22370,7 +22262,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.736660636844007</v>
+        <v>1.675786423673643</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.276448240268336</v>
@@ -22656,7 +22548,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.599853232928461</v>
+        <v>1.606641610990115</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.329365290407804</v>
@@ -22745,7 +22637,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.574332920387396</v>
+        <v>1.58009386859668</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.278185771471218</v>
@@ -22834,7 +22726,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.615335853830332</v>
+        <v>1.618189422712778</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.250147440425553</v>
@@ -22923,7 +22815,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.68140728065187</v>
+        <v>1.692371712747749</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.425793726309943</v>
@@ -23012,7 +22904,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.682396380256242</v>
+        <v>1.700938252431598</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.37387338275979</v>
@@ -23101,7 +22993,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.701775507063285</v>
+        <v>1.719305065309095</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.446086042443072</v>
@@ -23190,7 +23082,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.708309751823131</v>
+        <v>1.724534834453478</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.627637982850256</v>
@@ -23279,7 +23171,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.720929671047016</v>
+        <v>1.732478572998196</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.436904073891963</v>
@@ -23368,7 +23260,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.717092531825348</v>
+        <v>1.728913810994907</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.446286527198092</v>
@@ -23457,7 +23349,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.727676124723372</v>
+        <v>1.735768312285981</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.395748035387806</v>
@@ -23546,7 +23438,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.728227102796322</v>
+        <v>1.736002782486023</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.432683389510266</v>
@@ -23635,7 +23527,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.727064339620689</v>
+        <v>1.737065922530303</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.413581163878659</v>
@@ -23724,7 +23616,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.720746598400973</v>
+        <v>1.73042008410738</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.433791669850855</v>
@@ -23813,7 +23705,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.713553206524063</v>
+        <v>1.723611586377772</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.464323906461775</v>
@@ -23902,7 +23794,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.72017950441212</v>
+        <v>1.731101121476798</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.339850478623227</v>
@@ -23991,7 +23883,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.722291504015994</v>
+        <v>1.73328840436953</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.347169521675136</v>
@@ -24080,7 +23972,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.800432496700149</v>
+        <v>1.79153649743406</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.442468473967451</v>
@@ -24169,7 +24061,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.817728684016497</v>
+        <v>1.801664507476957</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.660607808704862</v>
@@ -24258,7 +24150,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.851151830857817</v>
+        <v>1.818430203679422</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.968677536847629</v>
@@ -24347,7 +24239,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.826530381731011</v>
+        <v>1.79013616451438</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.067311036286827</v>
@@ -24436,7 +24328,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.812575590738375</v>
+        <v>1.775022144612027</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.481286348935739</v>
@@ -24525,7 +24417,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.794067735278933</v>
+        <v>1.754736976417045</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.191903483779017</v>
@@ -24614,7 +24506,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.784696480137542</v>
+        <v>1.769083335157627</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.662556091539503</v>
@@ -24703,7 +24595,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.801163579428402</v>
+        <v>1.791416240061913</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.739222159251839</v>
@@ -24792,7 +24684,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.815034640093484</v>
+        <v>1.812705976370544</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.700309185499333</v>
@@ -24881,7 +24773,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.813822154943719</v>
+        <v>1.810593465798869</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.698638593035263</v>
@@ -24970,7 +24862,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.811477529687985</v>
+        <v>1.813937232909534</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.695947679861124</v>
@@ -25059,7 +24951,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.821361771668979</v>
+        <v>1.818733426262987</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.802893152097044</v>
@@ -25148,7 +25040,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.825934813031302</v>
+        <v>1.823401511864944</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.741608220564367</v>
@@ -25237,7 +25129,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.820786455354529</v>
+        <v>1.817209998905727</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.772387277042559</v>
@@ -25326,7 +25218,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.811511159942448</v>
+        <v>1.810727719881598</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.780144747739799</v>
@@ -25415,7 +25307,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.813562579619642</v>
+        <v>1.815732864361644</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.777094903963924</v>
@@ -25504,7 +25396,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.813850527985215</v>
+        <v>1.820144239534329</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.761646739983906</v>
@@ -25593,7 +25485,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.819114679650284</v>
+        <v>1.823035128056079</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.886849413750954</v>
@@ -25682,7 +25574,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.826941202508157</v>
+        <v>1.826116875592498</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.842921730080832</v>
@@ -25771,7 +25663,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.818142695193677</v>
+        <v>1.817942291025407</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.833171385862512</v>
@@ -25860,7 +25752,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.82694577099155</v>
+        <v>1.823625224789571</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.539328529864796</v>
@@ -25949,7 +25841,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.849746547147832</v>
+        <v>1.830991362682127</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.35953546397004</v>
@@ -26038,7 +25930,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.836013489530756</v>
+        <v>1.810331942207334</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.302729572768619</v>
@@ -26127,7 +26019,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.812797938326389</v>
+        <v>1.786949315033432</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.015960646177819</v>
@@ -26216,7 +26108,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.8177602344763</v>
+        <v>1.7861440559229</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.136368344674221</v>
@@ -26305,7 +26197,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.80862925915073</v>
+        <v>1.793167848672544</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.855018854398981</v>
@@ -26394,7 +26286,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.81092956832706</v>
+        <v>1.800890335105082</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.908725700292643</v>
@@ -26483,7 +26375,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.806286742478183</v>
+        <v>1.794965706988715</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.863245513849359</v>
@@ -26572,7 +26464,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.813344001375753</v>
+        <v>1.798687139672098</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.711516919504117</v>
@@ -26661,7 +26553,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.81530984777417</v>
+        <v>1.799540120654627</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.871295463076573</v>
@@ -26750,7 +26642,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.808586855074162</v>
+        <v>1.786789463691419</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.870714897028115</v>
@@ -26839,7 +26731,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.803019166959603</v>
+        <v>1.780539846067476</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.828658369046183</v>
@@ -26928,7 +26820,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.79300372570455</v>
+        <v>1.770145815567007</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.762856237079123</v>
@@ -27017,7 +26909,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.786049230952977</v>
+        <v>1.763032746502302</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.790720347683492</v>
@@ -27106,7 +26998,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.793148322812894</v>
+        <v>1.764037090637838</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.804069491979932</v>
@@ -27195,7 +27087,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.785267835245421</v>
+        <v>1.754463287953675</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.797932878808116</v>
@@ -27284,7 +27176,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.780065898459632</v>
+        <v>1.747623121833813</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.695631975638835</v>
@@ -27373,7 +27265,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.775007127060603</v>
+        <v>1.740432273256171</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.800426354985439</v>
@@ -27462,7 +27354,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.774745753389861</v>
+        <v>1.74057046292612</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.749670806598516</v>
@@ -27551,7 +27443,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.767201567890458</v>
+        <v>1.731384469577122</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.764437162130679</v>
@@ -27640,7 +27532,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.773334284267314</v>
+        <v>1.714887084581722</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.267137319875531</v>
@@ -27729,7 +27621,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.757555810325697</v>
+        <v>1.694592357825216</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.990913961164491</v>
@@ -27818,7 +27710,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.753317499957509</v>
+        <v>1.686331090532292</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.261310311601741</v>
@@ -27907,7 +27799,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.745187909147641</v>
+        <v>1.676047981827378</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.009421099743762</v>
@@ -27996,7 +27888,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.729329728078455</v>
+        <v>1.660229092504837</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.970666377281158</v>
@@ -28282,7 +28174,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.499123946549182</v>
+        <v>1.494577291149993</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.453653727734135</v>
@@ -28371,7 +28263,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.471566606870061</v>
+        <v>1.467190979602201</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.475385232285579</v>
@@ -28460,7 +28352,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.485383433375509</v>
+        <v>1.482792795158137</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.301648188582757</v>
@@ -28549,7 +28441,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.502801628381862</v>
+        <v>1.502160834721399</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.240767778059454</v>
@@ -28638,7 +28530,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.508816884002063</v>
+        <v>1.516139566894944</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.322018970757978</v>
@@ -28727,7 +28619,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.500431582973114</v>
+        <v>1.509758434566049</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.241970597753352</v>
@@ -28816,7 +28708,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.481654541099646</v>
+        <v>1.482434372683226</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.260083110849396</v>
@@ -28905,7 +28797,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.511144368696584</v>
+        <v>1.508364536433825</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.183317118431285</v>
@@ -28994,7 +28886,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.504501925333874</v>
+        <v>1.493880608747441</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.199941002522071</v>
@@ -29083,7 +28975,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.535448621018984</v>
+        <v>1.518627984699415</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.199590302297418</v>
@@ -29172,7 +29064,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.544256709410332</v>
+        <v>1.524851973627114</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.108157707651625</v>
@@ -29261,7 +29153,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.551102732720442</v>
+        <v>1.528041409907408</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.118610540130243</v>
@@ -29350,7 +29242,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.536136565377023</v>
+        <v>1.51487437718838</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.208791192019839</v>
@@ -29439,7 +29331,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.530148971360858</v>
+        <v>1.51141222044895</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.15414700885673</v>
@@ -29528,7 +29420,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.521677644537866</v>
+        <v>1.50673366905327</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.126436544556923</v>
@@ -29617,7 +29509,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.513565088950088</v>
+        <v>1.496659491371177</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.079010664173827</v>
@@ -29706,7 +29598,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.561937763703294</v>
+        <v>1.534576327717605</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.198744360903884</v>
@@ -29795,7 +29687,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.577525308069664</v>
+        <v>1.543019338692482</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.720264493314457</v>
@@ -29884,7 +29776,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.590951646488094</v>
+        <v>1.549062560653202</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.64658772439082</v>
@@ -29973,7 +29865,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.560059438913731</v>
+        <v>1.518576030373827</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.607754915553981</v>
@@ -30062,7 +29954,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.566032247698719</v>
+        <v>1.524881077869508</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.868870538676122</v>
@@ -30151,7 +30043,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.562286335957284</v>
+        <v>1.522713447846097</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.870588798153376</v>
@@ -30240,7 +30132,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.544321794095433</v>
+        <v>1.507770971914265</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.653961838414942</v>
@@ -30329,7 +30221,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.562989725168443</v>
+        <v>1.535283329255938</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.70846580999626</v>
@@ -30418,7 +30310,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.565052178441272</v>
+        <v>1.537735910629925</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.514333303529756</v>
@@ -30507,7 +30399,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.555309221893779</v>
+        <v>1.533979969474309</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.658400679111754</v>
@@ -30596,7 +30488,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.538959846016059</v>
+        <v>1.521450790811461</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.712070895832513</v>
@@ -30685,7 +30577,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.546215767652146</v>
+        <v>1.527341497226657</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.746029102344654</v>
@@ -30774,7 +30666,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.538830254971608</v>
+        <v>1.521265594245366</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.575429456764739</v>
@@ -30863,7 +30755,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.548962745931086</v>
+        <v>1.525721909712871</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.734010307713532</v>
@@ -30952,7 +30844,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.561107799914503</v>
+        <v>1.540760347507898</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.659200118594304</v>
@@ -31041,7 +30933,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.571019769910387</v>
+        <v>1.545372609941869</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.701720339075845</v>
@@ -31130,7 +31022,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.563395291728781</v>
+        <v>1.535538037777822</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.706838583029502</v>
@@ -31219,7 +31111,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.555558118494849</v>
+        <v>1.52722803082014</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.605332065120933</v>
@@ -31308,7 +31200,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.572980320795973</v>
+        <v>1.543500109149666</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.599143452394331</v>
@@ -31397,7 +31289,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.566504342497007</v>
+        <v>1.536451331057289</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.742969771717849</v>
@@ -31486,7 +31378,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.558071113016098</v>
+        <v>1.53167130066753</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.580190604037655</v>
@@ -31575,7 +31467,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.551532952513036</v>
+        <v>1.530620906367185</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.781606506942475</v>
@@ -31664,7 +31556,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.553572737196033</v>
+        <v>1.528862536653179</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.978191275924952</v>
@@ -31753,7 +31645,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.502213459287846</v>
+        <v>1.486733446931402</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.245845217023309</v>
@@ -31842,7 +31734,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.495151082897467</v>
+        <v>1.484148106676558</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.221305991868494</v>
@@ -31931,7 +31823,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.424544418922573</v>
+        <v>1.420748953383077</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.041476191154669</v>
@@ -32020,7 +31912,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.403556881996985</v>
+        <v>1.408144291338056</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.034788762337841</v>
@@ -32109,7 +32001,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.40961906259321</v>
+        <v>1.413188574446112</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.054568369870294</v>
@@ -32198,7 +32090,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.409509754754824</v>
+        <v>1.41489550041402</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.037977575467838</v>
@@ -32287,7 +32179,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.40428226689937</v>
+        <v>1.407832628620305</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.024786546222986</v>
@@ -32376,7 +32268,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.393813273598632</v>
+        <v>1.400409825319106</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.050364548479664</v>
@@ -32465,7 +32357,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.390138078038971</v>
+        <v>1.401211126163282</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.040366567669996</v>
@@ -32554,7 +32446,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.384360288618883</v>
+        <v>1.39466106495804</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.016725954286898</v>
@@ -32643,7 +32535,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.37686742994497</v>
+        <v>1.387853732014469</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.978410776910791</v>
@@ -32732,7 +32624,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.38841891142532</v>
+        <v>1.399735395769048</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.99007872768787</v>
@@ -32821,7 +32713,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.393615665324565</v>
+        <v>1.40159298389648</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.977333765498055</v>
@@ -32910,7 +32802,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.413937683538684</v>
+        <v>1.42247029307331</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.991524557301169</v>
@@ -32999,7 +32891,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.411370502987532</v>
+        <v>1.41755620662533</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.988213848152345</v>
@@ -33088,7 +32980,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.445869088146259</v>
+        <v>1.445231773686781</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.947643462151221</v>
@@ -33177,7 +33069,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.461548542230216</v>
+        <v>1.451066682114877</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.878098575343406</v>
@@ -33266,7 +33158,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.579469040565689</v>
+        <v>1.549296262215098</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.310461328197023</v>
@@ -33355,7 +33247,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.5877278775997</v>
+        <v>1.550511957845063</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.92336517772699</v>
@@ -33444,7 +33336,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.581618030952205</v>
+        <v>1.545592162565719</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.839037143585165</v>
@@ -33533,7 +33425,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.574384455282409</v>
+        <v>1.534442398040294</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.901046931319689</v>
@@ -33622,7 +33514,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.57248395399161</v>
+        <v>1.528576307488524</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.816608189449178</v>
@@ -33908,7 +33800,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.343300897344128</v>
+        <v>1.359985247330638</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.697979980308354</v>
@@ -33997,7 +33889,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.354094485514289</v>
+        <v>1.368981345748694</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.668260274226566</v>
@@ -34086,7 +33978,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.462699744459001</v>
+        <v>1.477066999191709</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.867933772439464</v>
@@ -34175,7 +34067,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.488480983968979</v>
+        <v>1.513040017925757</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.867093469994272</v>
@@ -34264,7 +34156,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.420187379443199</v>
+        <v>1.448888153065305</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.853808578835744</v>
@@ -34353,7 +34245,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.440817623040634</v>
+        <v>1.471122259232416</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.867604739886294</v>
@@ -34442,7 +34334,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.447138928149565</v>
+        <v>1.480750889179083</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.885292179942142</v>
@@ -34531,7 +34423,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.462962920359322</v>
+        <v>1.496610723800913</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.897186079835181</v>
@@ -34620,7 +34512,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.454626149636887</v>
+        <v>1.489504284163808</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.910427865180667</v>
@@ -34709,7 +34601,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.479189549136999</v>
+        <v>1.516834094776058</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.898755656653467</v>
@@ -34798,7 +34690,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.477861584463084</v>
+        <v>1.513525975072047</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.861847314910063</v>
@@ -34887,7 +34779,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.47229092550776</v>
+        <v>1.507840116929041</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.867294448639781</v>
@@ -34976,7 +34868,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.462105661425793</v>
+        <v>1.497866045123441</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.856291804651874</v>
@@ -35065,7 +34957,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.468965409698151</v>
+        <v>1.505370150931641</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.878019804185516</v>
@@ -35154,7 +35046,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.488351972905871</v>
+        <v>1.527132109164667</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.862623064399525</v>
@@ -35243,7 +35135,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.500248400782976</v>
+        <v>1.540090724419147</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.849182649190355</v>
@@ -35332,7 +35224,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.528556017977503</v>
+        <v>1.575950230290872</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.781060755036282</v>
@@ -35421,7 +35313,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.549055143203729</v>
+        <v>1.601494890606257</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.85117174541206</v>
@@ -35510,7 +35402,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.697180121151073</v>
+        <v>1.739246909550949</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.963886544732997</v>
@@ -35599,7 +35491,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.760858246689413</v>
+        <v>1.79677486206868</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.811786562691962</v>
@@ -35688,7 +35580,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.744842661902973</v>
+        <v>1.788619589797311</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.835445782461858</v>
@@ -35777,7 +35669,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.713936037637678</v>
+        <v>1.760690398055917</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.516070634590541</v>
@@ -35866,7 +35758,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.563457673861901</v>
+        <v>1.606929758004709</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.820308916096626</v>
@@ -35955,7 +35847,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.579269499001107</v>
+        <v>1.628874843633554</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.889840803672924</v>
@@ -36044,7 +35936,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.590593073561928</v>
+        <v>1.642128279657256</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.891335355016752</v>
@@ -36133,7 +36025,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.584979843090684</v>
+        <v>1.629451431051763</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.915774664001426</v>
@@ -36222,7 +36114,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.587975462474197</v>
+        <v>1.628882886942617</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.933939083786256</v>
@@ -36311,7 +36203,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.595764014714787</v>
+        <v>1.635934347090393</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.913824450563341</v>
@@ -36400,7 +36292,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.594233328453997</v>
+        <v>1.632699794033063</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.930029215804196</v>
@@ -36489,7 +36381,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.580253592565094</v>
+        <v>1.620301683565676</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.935374443121103</v>
@@ -36578,7 +36470,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.585922708439537</v>
+        <v>1.623571006821596</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.9388278093933</v>
@@ -36667,7 +36559,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.588510972491178</v>
+        <v>1.627512354252108</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.935232224999426</v>
@@ -36756,7 +36648,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.587335016179153</v>
+        <v>1.624837977226936</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.944353725909961</v>
@@ -36845,7 +36737,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.591722102395479</v>
+        <v>1.626903858280037</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.948231016491767</v>
@@ -36934,7 +36826,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.603641741597771</v>
+        <v>1.636463267933941</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.948883157447655</v>
@@ -37023,7 +36915,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.603262866724232</v>
+        <v>1.636236627178329</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.936358713861099</v>
@@ -37112,7 +37004,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.623772039590555</v>
+        <v>1.651951662373308</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.894272886749382</v>
@@ -37201,7 +37093,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.777284740198878</v>
+        <v>1.800219161060402</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.436039744751273</v>
@@ -37290,7 +37182,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.791681768675094</v>
+        <v>1.80615554699548</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.845448712404122</v>
@@ -37379,7 +37271,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.772713104374547</v>
+        <v>1.785323631470109</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.928566207533557</v>
@@ -37468,7 +37360,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.809260515372322</v>
+        <v>1.830681317984964</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.222922534135594</v>
@@ -37557,7 +37449,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.735901803281755</v>
+        <v>1.767447000291506</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.074943299253846</v>
@@ -37646,7 +37538,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.732226108087464</v>
+        <v>1.761228006181797</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.149051971771268</v>
@@ -37735,7 +37627,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.737732577510458</v>
+        <v>1.765579959463171</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.140703373468347</v>
@@ -37824,7 +37716,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.758576726793319</v>
+        <v>1.783299477200341</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.109733030249747</v>
@@ -37913,7 +37805,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.752531933601898</v>
+        <v>1.779007786796112</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.136684674429056</v>
@@ -38002,7 +37894,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.749749035879042</v>
+        <v>1.776162538152195</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.105421790778621</v>
@@ -38091,7 +37983,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.734692484431101</v>
+        <v>1.761923253021465</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.11529594914687</v>
@@ -38180,7 +38072,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.7331220188065</v>
+        <v>1.762616945295359</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.095636023322621</v>
@@ -38269,7 +38161,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.726799815852734</v>
+        <v>1.752261588268434</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.111511037413503</v>
@@ -38358,7 +38250,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.727241908579084</v>
+        <v>1.751649167884196</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.114764565332384</v>
@@ -38447,7 +38339,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.723569574186592</v>
+        <v>1.744726261961883</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.117942684795692</v>
@@ -38536,7 +38428,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.711004359373721</v>
+        <v>1.733924063862744</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.074045910515809</v>
@@ -38625,7 +38517,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.711486553102937</v>
+        <v>1.733988569906254</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.066479545490752</v>
@@ -38714,7 +38606,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.716184485462497</v>
+        <v>1.741835301215764</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.069641396351906</v>
@@ -38803,7 +38695,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.709157992327753</v>
+        <v>1.731235125750044</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.125554169811088</v>
@@ -38892,7 +38784,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.781883441270028</v>
+        <v>1.802635438170646</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.4578921117338</v>
@@ -38981,7 +38873,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.794493618767913</v>
+        <v>1.811142084368517</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.235490109823017</v>
@@ -39070,7 +38962,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.780664060624019</v>
+        <v>1.79645561050524</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.073466758926747</v>
@@ -39159,7 +39051,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.765043476244836</v>
+        <v>1.78053023642188</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.821702812699316</v>
@@ -39248,7 +39140,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.705785835648421</v>
+        <v>1.727027970121099</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.536117539969147</v>
